--- a/i18n/excel_from_translation/AHDB_OSR_disease_forecasts.xlsx
+++ b/i18n/excel_from_translation/AHDB_OSR_disease_forecasts.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26216"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="161" documentId="11_88105460B80C1EE5BA1A711D4847776CD256FEBF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72055575-8382-47F6-8AFC-70CA8686F089}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="11_88105460B80C1EE5BA1A711D4847776CD256FEBF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{495C3E1C-E359-44A3-B8DC-07FAB62B539F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="101">
   <si>
     <t>KEY</t>
   </si>
@@ -101,7 +101,13 @@
     <t>AHDB Prognoser för sjukdomar i oljeväxter</t>
   </si>
   <si>
+    <t>AHDB Prévision des maladies du colza</t>
+  </si>
+  <si>
     <t>Previsioni sulla malattia AHDB OSR</t>
+  </si>
+  <si>
+    <t>Προβλέψεις της AHDB για τις ασθένειες του OSR</t>
   </si>
   <si>
     <t>AHDB_OSR_disease_forecasts.1_0.models.LEPTMA.description</t>
@@ -181,10 +187,23 @@
 Ennuste ennustaa aloitusviikon päivämäärän, jolloin 10 %:lla rapsikasveista saattaa esiintyä oireita.</t>
   </si>
   <si>
+    <t xml:space="preserve">„Temperatūros ir kritulių kiekio meteorologiniai duomenys naudojami Leptosphaeria maculans - pagrindinio patogeno, sukeliančio fomozę (lapų pažeidimus ir stiebo sausąjį puvinį) - vystymuisi modeliuoti.
+Prognozuojant numatoma pradinės savaitės data, kai potencialiai 10 % rapsų augalų yra su fomozės pažeistais lapais.“
+</t>
+  </si>
+  <si>
+    <t>Le sclérotinia de la tige est généralement la principale maladie à prendre en compte pendant les stades de floraison du colza. Il existe 3 principaux facteurs de risque : la présence d'inoculum de sclérotinia (spores), des conditions chaudes et humides, et des cultures en fleur.
+Si des spores sont présentes et que la culture est en fleur, l'humidité relative doit être supérieure à 80% et la température de l'air supérieure à 7°C pendant 23 heures continues pour que le pathogène infecte la culture.</t>
+  </si>
+  <si>
     <t>Le informazioni sulla temperatura e sulle precipitazioni vengono utilizzate per simulare lo sviluppo della Leptosphaeria maculans, un patogeno chiave responsabile della maculatura fogliare e dell'infestazione del fusto.
 Le previsioni indicano la data della settimana iniziale in cui il 10% delle piante di colza potrebbe potenzialmente mostrare i sintomi della maculatura fogliare da phoma.</t>
   </si>
   <si>
+    <t>Οι πληροφορίες για τη θερμοκρασία και τη βροχόπτωση χρησιμοποιούνται για την προσομοίωση της ανάπτυξης του Leptosphaeria maculans - ενός βασικού παθογόνου που ευθύνεται για την κηλίδωση των φύλλων του phoma και τον καρκίνο του στελέχους του phoma.
+Η πρόβλεψη προβλέπει την ημερομηνία της εβδομάδας έναρξης, κατά την οποία το 10% των φυτών ελαιοκράμβης θα μπορούσε δυνητικά να εμφανίσει συμπτώματα της κηλίδας των φύλλων phoma.</t>
+  </si>
+  <si>
     <t>AHDB_OSR_disease_forecasts.1_0.models.LEPTMA.name</t>
   </si>
   <si>
@@ -212,9 +231,18 @@
     <t>Ennustemalli kuivamädälle.</t>
   </si>
   <si>
+    <t>Fomozės lapų pažeidimų prognozė.</t>
+  </si>
+  <si>
+    <t>Prévision du sclérotinia</t>
+  </si>
+  <si>
     <t>Previsioni maculatura fogliare da phoma</t>
   </si>
   <si>
+    <t>Πρόγνωση της κηλίδας φύλλων Phoma</t>
+  </si>
+  <si>
     <t>AHDB_OSR_disease_forecasts.1_0.models.LEPTMA.purpose</t>
   </si>
   <si>
@@ -242,7 +270,16 @@
     <t>Ennustaa päivämäärän, jolloin 10 %:lla rapsikasveista voi esiintyä kuivamädän oireita.</t>
   </si>
   <si>
+    <t>Numato datą, kada 10 % rapsų augalų gali būti su fomozės lapų pažeidimų požymiais.</t>
+  </si>
+  <si>
+    <t>Prévoit les conditions dans lesquelles l'infection par le sclérotinia est possible</t>
+  </si>
+  <si>
     <t>Prevede la data in cui il 10% delle piante di colza può manifestare sintomi di maculatura fogliare da phoma.</t>
+  </si>
+  <si>
+    <t>Προβλέπει την ημερομηνία κατά την οποία το 10% των φυτών ελαιοκράμβης μπορεί να εμφανίσει συμπτώματα της κηλίδας των φύλλων phoma</t>
   </si>
   <si>
     <t>AHDB_OSR_disease_forecasts.1_0.models.SCLESC.description</t>
@@ -280,6 +317,10 @@
 Se le spore sono presenti e la coltura è in fiore, l'umidità relativa deve essere superiore all'80% e la temperatura dell'aria superiore a 7°C per 23 ore continue affinché il patogeno infetti la coltura. Questo è quanto previsto dal modello.</t>
   </si>
   <si>
+    <t>Η σήψη του στελέχους της σκληροτινίας είναι συνήθως η κύρια ασθένεια που πρέπει να ληφθεί υπόψη κατά τα στάδια ανθοφορίας της ελαιοκράμβης. Υπάρχουν 3 βασικοί παράγοντες κινδύνου: η παρουσία μολυσμάτων (σπορίων) σκληροτινίας, οι θερμές και υγρές συνθήκες και οι καλλιέργειες σε άνθηση.
+Εάν υπάρχουν σπόρια και η καλλιέργεια βρίσκεται σε άνθηση, η σχετική υγρασία πρέπει να είναι πάνω από 80% και η θερμοκρασία του αέρα πάνω από 7&amp;deg;C για 23 συνεχείς ώρες για να μολύνει το παθογόνο την καλλιέργεια. Αυτό είναι που προβλέπεται από το μοντέλο.</t>
+  </si>
+  <si>
     <t>AHDB_OSR_disease_forecasts.1_0.models.SCLESC.name</t>
   </si>
   <si>
@@ -313,6 +354,9 @@
     <t>Previsione sclerotinia</t>
   </si>
   <si>
+    <t>Πρόγνωση της σκληροτινίας</t>
+  </si>
+  <si>
     <t>AHDB_OSR_disease_forecasts.1_0.models.SCLESC.purpose</t>
   </si>
   <si>
@@ -344,6 +388,9 @@
   </si>
   <si>
     <t>Prevede le condizioni in cui un'infezione di sclerotinia è possibile</t>
+  </si>
+  <si>
+    <t>Προβλέπει τις συνθήκες στις οποίες είναι δυνατή η μόλυνση από σκληροτίνια</t>
   </si>
 </sst>
 </file>
@@ -409,7 +456,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,6 +484,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -495,10 +548,19 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,14 +901,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -921,8 +984,14 @@
       <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="K2" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="L2" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -934,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -944,6 +1013,8 @@
     <col min="3" max="3" width="9.140625" style="6"/>
     <col min="4" max="5" width="9.140625" style="3"/>
     <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -977,13 +1048,13 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -998,98 +1069,125 @@
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="60.75">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="45.75">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>52</v>
+        <v>60</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>53</v>
+        <v>63</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1104,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1154,7 +1252,7 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -1169,107 +1267,116 @@
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>64</v>
+        <v>75</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>75</v>
+        <v>87</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="30.75">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>86</v>
+        <v>99</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1278,15 +1385,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CE6F8D6BD046F944849C04732F5FA09C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="985394bff33c465c59c1b6ffc7f2b18c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f0f33890-2782-435d-9951-89eaf76ec08c" xmlns:ns3="49b2234f-12e0-4bdf-b627-3d078507bec9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6e7ee76b1c64bbcff38e34ea77f7800" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1546,7 +1644,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="49b2234f-12e0-4bdf-b627-3d078507bec9" xsi:nil="true"/>
@@ -1559,14 +1657,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE727CA9-C216-4D69-8697-A7373E8C41DD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B01DAA2F-415C-4454-8ECA-490382C693A6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B01DAA2F-415C-4454-8ECA-490382C693A6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D3188CA-BB4D-463D-8E4F-F7C4888C1D47}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D3188CA-BB4D-463D-8E4F-F7C4888C1D47}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE727CA9-C216-4D69-8697-A7373E8C41DD}"/>
 </file>